--- a/estoque.xlsx
+++ b/estoque.xlsx
@@ -1,101 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab. impressora 3D\Documents\GitHub\EstoqueUepa\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927E3028-31CF-4E08-96F9-757BC9DB5930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="produtos" sheetId="1" r:id="rId1"/>
-    <sheet name="movimentos" sheetId="2" r:id="rId2"/>
+    <sheet name="produtos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="movimentos" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
-  <si>
-    <t>arroz</t>
-  </si>
-  <si>
-    <t>alimento</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>alcool</t>
-  </si>
-  <si>
-    <t>limpeza</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>alcool isopropilico</t>
-  </si>
-  <si>
-    <t>litros</t>
-  </si>
-  <si>
-    <t>nescau</t>
-  </si>
-  <si>
-    <t>ENTRADA</t>
-  </si>
-  <si>
-    <t>2025-11-28 14:00:08</t>
-  </si>
-  <si>
-    <t>2025-11-28 14:00:22</t>
-  </si>
-  <si>
-    <t>SAIDA</t>
-  </si>
-  <si>
-    <t>2025-11-28 14:00:35</t>
-  </si>
-  <si>
-    <t>2025-11-28 14:02:14</t>
-  </si>
-  <si>
-    <t>2025-11-28 14:02:33</t>
-  </si>
-  <si>
-    <t>2025-11-28 14:15:02</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -114,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -394,98 +386,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unidade </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Estoque</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Arroz</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>alimento</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -494,118 +457,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12.7109375" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Id </t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ProdutoID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tipo</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quantidade </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-11-28 17:04:34</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>
--- a/estoque.xlsx
+++ b/estoque.xlsx
@@ -10,14 +10,14 @@
     <sheet name="movimentos" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,29 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.5999938962981048"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +55,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,13 +442,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="69.140625" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -446,6 +501,1942 @@
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Ácido Muriático</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Água Sanitária</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Água sanitaria 5L</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>GALÃO C/5L</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Álcool</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Álcool </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Álcool Gel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>ANCINHO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>GALÃO C/5L</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Balde 15L</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>BALDE GRANDE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>GALÃO C/5L</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Balde Mop ZIGZAG 14L</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Bom Ar</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>borrifador</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Caixa para Correspondência de Acrilico, fixa, dupla, tam. oficio</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Cera Líquida</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>CESTO DE LIXO</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Cloro Gel</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Creolina</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Desinfetante</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Detergente</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Envelope saco kraft 80g/m2, 260x360mm, c/ timbre</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Escova</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>escova para sanitário</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>ESCOVINHA T/PEZINHO (DUPLAS)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>PCT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Espanador de Mesa</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D26" s="7" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Espanador de Teto</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Esponja Dupla Face</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="inlineStr">
+        <is>
+          <t>PCT C/10</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Flanela</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t>PCT C/10</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Hipoclorito sódio</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D30" s="7" t="inlineStr">
+        <is>
+          <t>PCT C/5</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Inseticida Aerosol</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D31" s="7" t="inlineStr">
+        <is>
+          <t>PCT C/5</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Lã de Aço Bombril</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D32" s="7" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Limpa Alumínio</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D33" s="7" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Limpa Pedra</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D34" s="7" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>Limpa Vidro</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Lixeira</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Lustra Móveis</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>luvas descartáveis</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>mascára descartável</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MOP</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Multiuso</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Óleo de Cedro</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>Óleo de Peroba</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>Pá de Lixo</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>PALHA DE AÇO</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>Pano de Chão</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>PAPEL HIGIÊNICO</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>Papel Higiênico 30M</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Papel Higiênico 8X300mts 9cm</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>Papel Toalha Interfolhado</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Pedra Sanitária</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Pulverizador</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>5 L</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>REMOVEDOR DE CERA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>6 L</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rodo </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Rodo para vidros 20cm</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>RODO Para vidros 40cm</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>RODO Para vidros 60cm</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>Sabão em Barra - Grande</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
+        <is>
+          <t>Sabão em Pó</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>Sabonete líquido 5L</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
+        <is>
+          <t>Saco 100L</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="inlineStr">
+        <is>
+          <t>Saco 200L</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>PCT</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>Saco 30L</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="inlineStr">
+        <is>
+          <t>Saco 50L</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>und</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>SACO DE LIXO 100 L</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D65" s="4" t="inlineStr">
+        <is>
+          <t>und</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>SACO DE LIXO 200 L</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
+        <is>
+          <t>und</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>SACO DE LIXO 30 L</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="inlineStr">
+        <is>
+          <t>Saponáceo</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>Soda Cáustica</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="inlineStr">
+        <is>
+          <t>Vassoura</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>Vassoura de nylon</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>Vassourão de piaçava</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D72" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>Vassourinha de Vaso</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D73" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>Desinfetante 5 LTS</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D74" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t>Escovinha de madeira</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D75" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>luvas em vinil</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D76" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t>Creolina</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t>Cera Líquida</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D78" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t>Balde</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t>Desinfetante 5 LTS</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t>Escovinha de madeira</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D81" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t>Luva em vinil</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D82" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>Vassoura para grama de plástico</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D83" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>Vassoura para grama de ferro</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>limpeza</t>
+        </is>
+      </c>
+      <c r="D84" s="4" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>feijão preto</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>alimento</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>lapis</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">und </t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -462,15 +2453,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12.7109375" customWidth="1" min="2" max="2"/>
+    <col width="12.5703125" customWidth="1" min="4" max="4"/>
+    <col width="18.42578125" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -521,6 +2514,69 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-12-01 14:38:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>85</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-12-01 14:55:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-12-01 15:24:26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/estoque.xlsx
+++ b/estoque.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -2442,6 +2442,60 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>kkk</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>feijão</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>feijão branco</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2453,7 +2507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
@@ -2577,6 +2631,111 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-12-04 17:02:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-12-04 17:02:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SAIDA</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-12-04 17:02:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-12-04 17:10:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>111</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-12-04 17:25:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/estoque.xlsx
+++ b/estoque.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -2496,6 +2496,61 @@
         <v>0</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>vassoura 3</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>arroz 5L</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5 L</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2507,7 +2562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
@@ -2736,6 +2791,90 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-12-05 16:27:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>49</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-12-09 14:44:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-12-09 15:22:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>84</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>22</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-12-09 15:22:50</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/estoque.xlsx
+++ b/estoque.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -2541,13 +2541,102 @@
           <t>arroz 5L</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
           <t>5 L</t>
         </is>
       </c>
       <c r="E92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>rr</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>alcool isoproponiu</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5 L</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>alcool iso  do bom</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>PCT C/10</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>arroz soltinho</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>feijão pretola</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2562,7 +2651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
@@ -2875,6 +2964,48 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>11</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-12-16 16:39:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-12-16 16:39:59</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/estoque.xlsx
+++ b/estoque.xlsx
@@ -2651,7 +2651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
@@ -3006,6 +3006,29 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Álcool</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>66</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-12-18 16:51:20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/estoque.xlsx
+++ b/estoque.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -2640,6 +2640,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ee</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2651,7 +2670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
@@ -3029,6 +3048,29 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Esponja Dupla Face</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2026-01-06 15:06:26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/estoque.xlsx
+++ b/estoque.xlsx
@@ -2193,25 +2193,25 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="8" t="n">
         <v>98</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="8" t="inlineStr">
         <is>
           <t>gfff</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="8" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D99" s="8" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E99" t="n">
+      <c r="E99" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
@@ -2629,6 +2629,29 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Detergente</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2026-01-18 19:47:06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/estoque.xlsx
+++ b/estoque.xlsx
@@ -2630,23 +2630,23 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>Detergente</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="8" t="inlineStr">
         <is>
           <t>ENTRADA</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="8" t="inlineStr">
         <is>
           <t>2026-01-18 19:47:06</t>
         </is>

--- a/estoque.xlsx
+++ b/estoque.xlsx
@@ -2228,7 +2228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
@@ -2652,6 +2652,52 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="8" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>33</v>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>2026-01-20 11:21:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>2026-01-20 11:30:53</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/estoque.xlsx
+++ b/estoque.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,351 @@
         <is>
           <t>Estoque</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>prof</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rd</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>rr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LITRO</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ddf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>dew</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LITRO</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>faw</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LITRO</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>gseg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>esefse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LITRO</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>fse\ef</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LITRO</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>fs\ef</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>\ef\s</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LITRO</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>sefs</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LITRO</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>sf\es</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LITRO</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>\efse</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LITRO</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>\fefsdf\ese\e</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LITRO</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -460,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +845,110 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>esefse</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2026-02-26 16:46:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>rr</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2026-02-26 16:48:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>dew</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:01:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>prof</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ENTRADA</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-02-26 17:01:21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
